--- a/src/exports/reporte_empresas.xlsx.xlsx
+++ b/src/exports/reporte_empresas.xlsx.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,19 +433,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>67c28d486729bbe012227e1c</v>
+        <v>67c28ebf6729bbe012227e32</v>
       </c>
       <c r="B2" t="str">
         <v>Zara</v>
       </c>
       <c r="C2" t="str">
-        <v>A.S.</v>
+        <v>S. A.</v>
       </c>
       <c r="D2" t="str">
-        <v>21547895</v>
+        <v>56177895</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>1974</v>
       </c>
       <c r="F2" t="str">
         <v>Global</v>
@@ -460,9 +460,734 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>67c28ed56729bbe012227e35</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Yahoo</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Inc.</v>
+      </c>
+      <c r="D3" t="str">
+        <v>56177895</v>
+      </c>
+      <c r="E3">
+        <v>1906</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Global</v>
+      </c>
+      <c r="G3">
+        <v>NaN</v>
+      </c>
+      <c r="H3" t="str">
+        <v>tecnologia</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>67c28ee06729bbe012227e38</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Xerox Holding</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Inc.</v>
+      </c>
+      <c r="D4" t="str">
+        <v>21877895</v>
+      </c>
+      <c r="E4">
+        <v>1962</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Global</v>
+      </c>
+      <c r="G4">
+        <v>NaN</v>
+      </c>
+      <c r="H4" t="str">
+        <v>retail</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>67c28ee86729bbe012227e3b</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Walmart</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Inc.</v>
+      </c>
+      <c r="D5" t="str">
+        <v>21877895</v>
+      </c>
+      <c r="E5">
+        <v>1958</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Global</v>
+      </c>
+      <c r="G5">
+        <v>NaN</v>
+      </c>
+      <c r="H5" t="str">
+        <v>finanzas</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>67c28eee6729bbe012227e3e</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Visa</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Inc.</v>
+      </c>
+      <c r="D6" t="str">
+        <v>21877895</v>
+      </c>
+      <c r="E6">
+        <v>2009</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Global</v>
+      </c>
+      <c r="G6">
+        <v>NaN</v>
+      </c>
+      <c r="H6" t="str">
+        <v>transporte</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>67c28efc6729bbe012227e41</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Uber Techologies</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Inc.</v>
+      </c>
+      <c r="D7" t="str">
+        <v>21877895</v>
+      </c>
+      <c r="E7">
+        <v>2003</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Global</v>
+      </c>
+      <c r="G7">
+        <v>NaN</v>
+      </c>
+      <c r="H7" t="str">
+        <v>automotriz</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>67c28f026729bbe012227e44</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Tesla</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Ltd.</v>
+      </c>
+      <c r="D8" t="str">
+        <v>21877895</v>
+      </c>
+      <c r="E8">
+        <v>1969</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Global</v>
+      </c>
+      <c r="G8">
+        <v>NaN</v>
+      </c>
+      <c r="H8" t="str">
+        <v>tecnologia</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>67c28f096729bbe012227e47</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Samsung</v>
+      </c>
+      <c r="C9" t="str">
+        <v>S. A.</v>
+      </c>
+      <c r="D9" t="str">
+        <v>21877895</v>
+      </c>
+      <c r="E9">
+        <v>1899</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Global</v>
+      </c>
+      <c r="G9">
+        <v>NaN</v>
+      </c>
+      <c r="H9" t="str">
+        <v>automotriz</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>67c28f106729bbe012227e4a</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Renault</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Incorporated</v>
+      </c>
+      <c r="D10" t="str">
+        <v>21877895</v>
+      </c>
+      <c r="E10">
+        <v>1985</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Global</v>
+      </c>
+      <c r="G10">
+        <v>NaN</v>
+      </c>
+      <c r="H10" t="str">
+        <v>tecnologia</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>67c28f176729bbe012227e4d</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Qualcomm</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Inc.</v>
+      </c>
+      <c r="D11" t="str">
+        <v>21877895</v>
+      </c>
+      <c r="E11">
+        <v>1998</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Global</v>
+      </c>
+      <c r="G11">
+        <v>NaN</v>
+      </c>
+      <c r="H11" t="str">
+        <v>finanzas</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>67c28f1d6729bbe012227e50</v>
+      </c>
+      <c r="B12" t="str">
+        <v>PayPal</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Corporation</v>
+      </c>
+      <c r="D12" t="str">
+        <v>21877895</v>
+      </c>
+      <c r="E12">
+        <v>1977</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Global</v>
+      </c>
+      <c r="G12">
+        <v>NaN</v>
+      </c>
+      <c r="H12" t="str">
+        <v>tecnologia</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>67c28f256729bbe012227e53</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Oracle</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Inc.</v>
+      </c>
+      <c r="D13" t="str">
+        <v>21877895</v>
+      </c>
+      <c r="E13">
+        <v>1997</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Global</v>
+      </c>
+      <c r="G13">
+        <v>NaN</v>
+      </c>
+      <c r="H13" t="str">
+        <v>entretenimiento</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>67c28f386729bbe012227e56</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Netflix</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Inc.</v>
+      </c>
+      <c r="D14" t="str">
+        <v>21877895</v>
+      </c>
+      <c r="E14">
+        <v>1997</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Global</v>
+      </c>
+      <c r="G14">
+        <v>NaN</v>
+      </c>
+      <c r="H14" t="str">
+        <v>entretenimiento</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>67c28f406729bbe012227e59</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Microfot</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Corporation</v>
+      </c>
+      <c r="D15" t="str">
+        <v>21877895</v>
+      </c>
+      <c r="E15">
+        <v>1975</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Global</v>
+      </c>
+      <c r="G15">
+        <v>NaN</v>
+      </c>
+      <c r="H15" t="str">
+        <v>tecnologia</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>67c28f466729bbe012227e5c</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Lenovo</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Ltd.</v>
+      </c>
+      <c r="D16" t="str">
+        <v>21547895</v>
+      </c>
+      <c r="E16">
+        <v>1984</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Global</v>
+      </c>
+      <c r="G16">
+        <v>NaN</v>
+      </c>
+      <c r="H16" t="str">
+        <v>tecnologia</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>67c28f4c6729bbe012227e5f</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Kodak</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Company</v>
+      </c>
+      <c r="D17" t="str">
+        <v>21547895</v>
+      </c>
+      <c r="E17">
+        <v>1888</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Global</v>
+      </c>
+      <c r="G17">
+        <v>NaN</v>
+      </c>
+      <c r="H17" t="str">
+        <v>fotografia</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>67c28f536729bbe012227e62</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Johnson</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Company</v>
+      </c>
+      <c r="D18" t="str">
+        <v>21547895</v>
+      </c>
+      <c r="E18">
+        <v>1886</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Global</v>
+      </c>
+      <c r="G18">
+        <v>NaN</v>
+      </c>
+      <c r="H18" t="str">
+        <v>salud</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>67c28f5f6729bbe012227e65</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Intel</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Corporation</v>
+      </c>
+      <c r="D19" t="str">
+        <v>21547895</v>
+      </c>
+      <c r="E19">
+        <v>1968</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Global</v>
+      </c>
+      <c r="G19">
+        <v>NaN</v>
+      </c>
+      <c r="H19" t="str">
+        <v>tecnologia</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>67c28f696729bbe012227e68</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Huawei</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Ltd.</v>
+      </c>
+      <c r="D20" t="str">
+        <v>21547895</v>
+      </c>
+      <c r="E20">
+        <v>1987</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Global</v>
+      </c>
+      <c r="G20">
+        <v>NaN</v>
+      </c>
+      <c r="H20" t="str">
+        <v>tecnologia</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>67c28f6e6729bbe012227e6b</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Google</v>
+      </c>
+      <c r="C21" t="str">
+        <v>LLC</v>
+      </c>
+      <c r="D21" t="str">
+        <v>21547895</v>
+      </c>
+      <c r="E21">
+        <v>1998</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Global</v>
+      </c>
+      <c r="G21">
+        <v>NaN</v>
+      </c>
+      <c r="H21" t="str">
+        <v>tecnologia</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>67c28f7a6729bbe012227e6e</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Motor</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Company</v>
+      </c>
+      <c r="D22" t="str">
+        <v>21547895</v>
+      </c>
+      <c r="E22">
+        <v>1995</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Global</v>
+      </c>
+      <c r="G22">
+        <v>NaN</v>
+      </c>
+      <c r="H22" t="str">
+        <v>tecnologia</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>67c28f816729bbe012227e71</v>
+      </c>
+      <c r="B23" t="str">
+        <v>EBay</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Inc</v>
+      </c>
+      <c r="D23" t="str">
+        <v>21547895</v>
+      </c>
+      <c r="E23">
+        <v>1995</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Global</v>
+      </c>
+      <c r="G23">
+        <v>NaN</v>
+      </c>
+      <c r="H23" t="str">
+        <v>tecnologia</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>67c28f866729bbe012227e74</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Dell</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Inc</v>
+      </c>
+      <c r="D24" t="str">
+        <v>21547895</v>
+      </c>
+      <c r="E24">
+        <v>1984</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Global</v>
+      </c>
+      <c r="G24">
+        <v>NaN</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Tecnologia</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>67c28f8e6729bbe012227e77</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Coca'Cola</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Company.</v>
+      </c>
+      <c r="D25" t="str">
+        <v>21547895</v>
+      </c>
+      <c r="E25">
+        <v>1892</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Global</v>
+      </c>
+      <c r="G25">
+        <v>NaN</v>
+      </c>
+      <c r="H25" t="str">
+        <v>Alimentos y bebidas</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>67c28f996729bbe012227e7a</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Boeing</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Co.</v>
+      </c>
+      <c r="D26" t="str">
+        <v>21547895</v>
+      </c>
+      <c r="E26">
+        <v>1916</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Global</v>
+      </c>
+      <c r="G26">
+        <v>NaN</v>
+      </c>
+      <c r="H26" t="str">
+        <v>Aeroespacial</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>67c28fa56729bbe012227e7d</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Amazon</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Inc</v>
+      </c>
+      <c r="D27" t="str">
+        <v>21547895</v>
+      </c>
+      <c r="E27">
+        <v>1994</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Global</v>
+      </c>
+      <c r="G27">
+        <v>NaN</v>
+      </c>
+      <c r="H27" t="str">
+        <v>tecnologia</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I27"/>
   </ignoredErrors>
 </worksheet>
 </file>